--- a/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,91</t>
+          <t>17,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>28,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>64,07%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>51,37%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>110,7%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 28,41</t>
+          <t>-3,63; 39,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 31,77</t>
+          <t>-2,43; 39,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 25,04</t>
+          <t>-7,52; 36,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 136,81</t>
+          <t>4,94; 55,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 211,07</t>
+          <t>-12,63; 256,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 136,99</t>
+          <t>-9,43; 277,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 280,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 523,22</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,1</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>20,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,06</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145,92%</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>110,0%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>179,25%</t>
+          <t>113,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35,51%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 26,7</t>
+          <t>7,61; 27,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 25,98</t>
+          <t>10,86; 30,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 29,76</t>
+          <t>1,24; 25,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,39; 240,01</t>
+          <t>-6,5; 20,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,36; 192,26</t>
+          <t>30,97; 175,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,26; 317,23</t>
+          <t>44,42; 229,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 224,74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 95,38</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,93%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 15,51</t>
+          <t>-8,61; 11,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 12,96</t>
+          <t>-9,07; 10,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 9,8</t>
+          <t>-11,02; 8,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 103,92</t>
+          <t>-12,61; 9,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 84,5</t>
+          <t>-28,77; 62,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 61,0</t>
+          <t>-32,96; 58,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-38,19; 47,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-41,22; 48,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 20,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 19,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,4; 124,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,4; 127,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,91; 134,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>58,47%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 17,47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 18,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 15,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 17,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 91,6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 106,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 91,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 80,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,55</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>28,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>63,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>64,07%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>51,37%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>110,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.3523741863577</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.58111586780624</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.63373598521374</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>25.91278991890913</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5095646120569358</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.653935535152542</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5627267455706522</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9923921072297056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 39,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 39,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 36,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 55,76</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,63; 256,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 277,02</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; 280,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 523,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.633967238402466</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.085810139472356</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.340652140485663</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.704866469186828</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2299360772558502</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.09127091545058574</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1760515419018232</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.02685756366608695</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>35.90978352718789</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>40.48409442083019</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>37.72920994051528</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>52.92003688478913</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.129064206194892</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.682369920997026</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.854578814016852</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.905666982351714</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>17,95</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>15,67</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,05</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>86,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>113,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>89,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>35,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 27,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 30,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 25,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; 20,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>30,97; 175,71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>44,42; 229,55</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 224,74</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-17,44; 95,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.52490299535037</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>20.31195050205258</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.82613185732657</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.14051650519285</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7129790285197992</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.128293836697837</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.9355382629380992</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3581306242826838</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-6,93%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.444270660494259</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>10.77426429175278</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.79681908580138</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.157546139434795</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1782818131178302</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4655652842459948</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.02754183738014419</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1751779953874038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 11,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,07; 10,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; 8,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,61; 9,41</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-28,77; 62,99</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,96; 58,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-38,19; 47,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-41,22; 48,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>25.42535955067671</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>30.27789505857782</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>25.26426870190339</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.22059625404048</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.511871395715544</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.300908604845653</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.314629543537106</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9665728140785078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.77822475741829</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9714728235185682</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.822778241062714</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.42011451128857</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.0767800669855444</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.04314348339791917</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.07873806492768616</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05822535241714484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.277556054713852</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.718317363445415</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.45195650828993</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.02060078493054</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.309154273379942</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3415396397115814</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4030116838671818</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4278609800894553</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.18872070700185</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.66980848747207</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.145218590409229</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.689886889411202</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.704544985317371</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6416312707628269</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.4721560934419951</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4765135091826244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>47,61%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>58,47%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>42,37%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>35,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 17,47</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 18,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 15,44</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 17,77</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>16,14; 91,6</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 106,68</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 91,37</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 80,61</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.759121711328216</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.42421227974843</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.207750361541189</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.939202042658712</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.42057198376673</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5964544942659821</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4526917969677635</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3355130357767948</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.987423941015747</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.845303487455218</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.132546555305744</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.7731344432949373</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.09475636322964942</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2303581625937348</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.02419384740720957</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0391169190923502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.79232583920788</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.30052599862982</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.69111356916456</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.32029635853203</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.8602939764605284</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.079183396261882</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9543009075373329</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7843661474291866</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
